--- a/v3/tablegen/ErrorID.xlsx
+++ b/v3/tablegen/ErrorID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="15000"/>
+    <workbookView windowWidth="19095" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>字段名</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>枚举值需要手动指定</t>
+  </si>
+  <si>
+    <t>InvalidTypeTable</t>
+  </si>
+  <si>
+    <t>非法的类型表</t>
+  </si>
+  <si>
+    <t>类型表格式出现异常</t>
   </si>
 </sst>
 </file>
@@ -90,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -117,8 +126,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +158,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -141,120 +224,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,187 +284,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,17 +493,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,9 +519,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,17 +561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,20 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +610,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1072,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1222,13 +1231,22 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="2"/>

--- a/v3/tablegen/ErrorID.xlsx
+++ b/v3/tablegen/ErrorID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9000"/>
+    <workbookView windowWidth="28695" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>字段名</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>类型表格式出现异常</t>
+  </si>
+  <si>
+    <t>HeaderTypeNotFound</t>
+  </si>
+  <si>
+    <t>表头类型找不到</t>
+  </si>
+  <si>
+    <t>没有在类型表中定义表头类型？</t>
   </si>
 </sst>
 </file>
@@ -99,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -125,6 +134,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -133,6 +179,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -149,44 +225,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +265,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,68 +273,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,187 +293,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +498,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,22 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,17 +591,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1081,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1248,12 +1257,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="2"/>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
